--- a/doc/organisation/Burndown Chart/Sprint 5.xlsx
+++ b/doc/organisation/Burndown Chart/Sprint 5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patigny.nicolas\AndroidStudioProjects\BSN_2024\doc\organisation\Burndown Chart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meyer.max\AndroidStudioProjects\BSN_2024\doc\organisation\Burndown Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F598712F-98AA-444C-BAA8-329ECB520737}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F76E249-4CE1-4773-BA0A-B942572DB08D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Initial Estimate</t>
   </si>
   <si>
     <t>Remaining Effort</t>
-  </si>
-  <si>
-    <t>Hours Left</t>
   </si>
   <si>
     <t>Ideal Burndown</t>
@@ -75,15 +72,6 @@
     <t>Actual Story Points</t>
   </si>
   <si>
-    <t>US#1 Page:Eliott</t>
-  </si>
-  <si>
-    <t>US#2 Navigation:Eliott+Max</t>
-  </si>
-  <si>
-    <t>US#3 Class 'User':Vincenzo</t>
-  </si>
-  <si>
     <t>Day 8</t>
   </si>
   <si>
@@ -99,58 +87,16 @@
     <t>Day 12</t>
   </si>
   <si>
-    <t>Day 13</t>
+    <t>US#1 naviguer librement : Max</t>
   </si>
   <si>
-    <t>Day 14</t>
+    <t>US#2 m'inscrire localement Vinc/ Eliott</t>
   </si>
   <si>
-    <t>Day 15</t>
+    <t xml:space="preserve">US#3 slide up mes messages Nicolas </t>
   </si>
   <si>
-    <t>Day 16</t>
-  </si>
-  <si>
-    <t>Day 17</t>
-  </si>
-  <si>
-    <t>Day 18</t>
-  </si>
-  <si>
-    <t>Day 19</t>
-  </si>
-  <si>
-    <t>Day 20</t>
-  </si>
-  <si>
-    <t>Day 21</t>
-  </si>
-  <si>
-    <t>Day 22</t>
-  </si>
-  <si>
-    <t>Day 23</t>
-  </si>
-  <si>
-    <t>Day 24</t>
-  </si>
-  <si>
-    <t>Day 25</t>
-  </si>
-  <si>
-    <t>Day 26</t>
-  </si>
-  <si>
-    <t>Day 27</t>
-  </si>
-  <si>
-    <t>Day 28</t>
-  </si>
-  <si>
-    <t>US#4 SQL:Mika+Karim+Al</t>
-  </si>
-  <si>
-    <t>0.5</t>
+    <t>US#4 SQL:Karim+Al</t>
   </si>
 </sst>
 </file>
@@ -459,7 +405,7 @@
             <c:strRef>
               <c:f>Sheet1!$B$9:$AD$9</c:f>
               <c:strCache>
-                <c:ptCount val="29"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Start</c:v>
                 </c:pt>
@@ -498,54 +444,6 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Day 12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Day 13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Day 14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Day 15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Day 16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Day 17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Day 18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Day 19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Day 20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Day 21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Day 22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Day 23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Day 24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Day 25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Day 26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Day 27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Day 28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -590,54 +488,6 @@
                   <c:v>1.6428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6428571428571428</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6428571428571428</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6428571428571428</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6428571428571428</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6428571428571428</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6428571428571428</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6428571428571428</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.6428571428571428</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.6428571428571428</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.6428571428571428</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.6428571428571428</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.6428571428571428</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.6428571428571428</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.6428571428571428</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.6428571428571428</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.6428571428571428</c:v>
-                </c:pt>
-                <c:pt idx="28">
                   <c:v>1.6428571428571428</c:v>
                 </c:pt>
               </c:numCache>
@@ -680,7 +530,7 @@
             <c:strRef>
               <c:f>Sheet1!$B$9:$AD$9</c:f>
               <c:strCache>
-                <c:ptCount val="29"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Start</c:v>
                 </c:pt>
@@ -719,54 +569,6 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Day 12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Day 13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Day 14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Day 15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Day 16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Day 17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Day 18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Day 19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Day 20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Day 21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Day 22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Day 23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Day 24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Day 25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Day 26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Day 27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Day 28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -778,16 +580,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -796,13 +598,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -811,54 +613,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -927,7 +681,7 @@
             <c:strRef>
               <c:f>Sheet1!$B$9:$AD$9</c:f>
               <c:strCache>
-                <c:ptCount val="29"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Start</c:v>
                 </c:pt>
@@ -966,54 +720,6 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Day 12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Day 13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Day 14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Day 15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Day 16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Day 17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Day 18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Day 19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Day 20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Day 21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Day 22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Day 23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Day 24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Day 25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Day 26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Day 27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Day 28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1028,88 +734,40 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46</c:v>
+                  <c:v>44.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1154,7 +812,7 @@
             <c:strRef>
               <c:f>Sheet1!$B$9:$AD$9</c:f>
               <c:strCache>
-                <c:ptCount val="29"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Start</c:v>
                 </c:pt>
@@ -1193,54 +851,6 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Day 12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Day 13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Day 14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Day 15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Day 16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Day 17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Day 18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Day 19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Day 20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Day 21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Day 22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Day 23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Day 24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Day 25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Day 26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Day 27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Day 28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1289,54 +899,6 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>26.285714285714263</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24.642857142857121</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22.999999999999979</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21.357142857142836</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.714285714285694</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.071428571428552</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16.428571428571409</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14.785714285714267</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13.142857142857125</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11.499999999999982</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.8571428571428399</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.2142857142856975</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.5714285714285552</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.9285714285714128</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.28571428571427</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.6428571428571273</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-1.5543122344752192E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2508,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23A665-88C7-4222-B918-AB1BED6AEF55}">
   <dimension ref="A1:AN13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2529,111 +2091,77 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="7"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5">
         <v>8</v>
       </c>
       <c r="C2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
@@ -2648,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="I2" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L2" s="19">
         <v>0</v>
@@ -2663,67 +2191,32 @@
         <v>0</v>
       </c>
       <c r="N2" s="19">
-        <v>1</v>
-      </c>
-      <c r="O2" s="19">
-        <v>0</v>
-      </c>
-      <c r="P2" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="19">
-        <v>0</v>
-      </c>
-      <c r="R2" s="19">
-        <v>0</v>
-      </c>
-      <c r="S2" s="19">
-        <v>0</v>
-      </c>
-      <c r="T2" s="19">
-        <v>1</v>
-      </c>
-      <c r="U2" s="19">
-        <v>0</v>
-      </c>
-      <c r="V2" s="19">
-        <v>0</v>
-      </c>
-      <c r="W2" s="19">
-        <v>0</v>
-      </c>
-      <c r="X2" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="8">
-        <f>B2-(SUM(C2:AD2))</f>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="8"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
@@ -2735,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
@@ -2744,13 +2237,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="6">
-        <v>2</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="J3" s="18">
+        <v>0</v>
       </c>
       <c r="K3" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="18">
         <v>0</v>
@@ -2761,68 +2254,33 @@
       <c r="N3" s="18">
         <v>0</v>
       </c>
-      <c r="O3" s="18">
-        <v>0</v>
-      </c>
-      <c r="P3" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="18">
-        <v>0</v>
-      </c>
-      <c r="R3" s="18">
-        <v>0</v>
-      </c>
-      <c r="S3" s="18">
-        <v>0</v>
-      </c>
-      <c r="T3" s="18">
-        <v>0</v>
-      </c>
-      <c r="U3" s="18">
-        <v>0</v>
-      </c>
-      <c r="V3" s="18">
-        <v>0</v>
-      </c>
-      <c r="W3" s="18">
-        <v>0</v>
-      </c>
-      <c r="X3" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="9">
-        <f>B3-(SUM(C3:AD3))</f>
-        <v>4</v>
-      </c>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="9"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
@@ -2831,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
         <v>0</v>
@@ -2840,14 +2298,14 @@
         <v>0</v>
       </c>
       <c r="I4" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J4" s="19">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19">
         <v>4</v>
       </c>
-      <c r="K4" s="19">
-        <v>0</v>
-      </c>
       <c r="L4" s="19">
         <v>0</v>
       </c>
@@ -2857,62 +2315,27 @@
       <c r="N4" s="19">
         <v>0</v>
       </c>
-      <c r="O4" s="19">
-        <v>0</v>
-      </c>
-      <c r="P4" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="19">
-        <v>0</v>
-      </c>
-      <c r="R4" s="19">
-        <v>0</v>
-      </c>
-      <c r="S4" s="19">
-        <v>0</v>
-      </c>
-      <c r="T4" s="19">
-        <v>0</v>
-      </c>
-      <c r="U4" s="19">
-        <v>0</v>
-      </c>
-      <c r="V4" s="19">
-        <v>0</v>
-      </c>
-      <c r="W4" s="19">
-        <v>0</v>
-      </c>
-      <c r="X4" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="8">
-        <f>B4-(SUM(C4:AD4))</f>
-        <v>0</v>
-      </c>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="8"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5">
         <v>18</v>
@@ -2927,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
@@ -2936,13 +2359,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K5" s="19">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L5" s="19">
         <v>0</v>
@@ -2951,60 +2374,25 @@
         <v>0</v>
       </c>
       <c r="N5" s="19">
-        <v>2</v>
-      </c>
-      <c r="O5" s="19">
-        <v>0</v>
-      </c>
-      <c r="P5" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="19">
-        <v>0</v>
-      </c>
-      <c r="R5" s="19">
-        <v>0</v>
-      </c>
-      <c r="S5" s="19">
-        <v>0</v>
-      </c>
-      <c r="T5" s="19">
-        <v>1</v>
-      </c>
-      <c r="U5" s="19">
-        <v>0</v>
-      </c>
-      <c r="V5" s="19">
-        <v>0</v>
-      </c>
-      <c r="W5" s="19">
-        <v>0</v>
-      </c>
-      <c r="X5" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="8">
-        <f>B5-(SUM(C5:AD5))</f>
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="8"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -3037,10 +2425,7 @@
       <c r="AB6" s="21"/>
       <c r="AC6" s="21"/>
       <c r="AD6" s="21"/>
-      <c r="AE6" s="17">
-        <f>B6-(SUM(C6:AD6))</f>
-        <v>0</v>
-      </c>
+      <c r="AE6" s="17"/>
       <c r="AN6" s="9">
         <f>B6-(SUM(C6:AM6))</f>
         <v>0</v>
@@ -3048,99 +2433,67 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="J9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="14">
@@ -3191,83 +2544,35 @@
         <f t="shared" si="0"/>
         <v>1.6428571428571428</v>
       </c>
-      <c r="O10" s="14">
-        <f t="shared" si="0"/>
-        <v>1.6428571428571428</v>
-      </c>
-      <c r="P10" s="14">
-        <f t="shared" si="0"/>
-        <v>1.6428571428571428</v>
-      </c>
-      <c r="Q10" s="14">
-        <f t="shared" si="0"/>
-        <v>1.6428571428571428</v>
-      </c>
-      <c r="R10" s="14">
-        <f t="shared" si="0"/>
-        <v>1.6428571428571428</v>
-      </c>
-      <c r="S10" s="14">
-        <f t="shared" si="0"/>
-        <v>1.6428571428571428</v>
-      </c>
-      <c r="T10" s="14">
-        <f t="shared" si="0"/>
-        <v>1.6428571428571428</v>
-      </c>
-      <c r="U10" s="14">
-        <f t="shared" si="0"/>
-        <v>1.6428571428571428</v>
-      </c>
-      <c r="V10" s="14">
-        <f t="shared" si="0"/>
-        <v>1.6428571428571428</v>
-      </c>
-      <c r="W10" s="14">
-        <f t="shared" si="0"/>
-        <v>1.6428571428571428</v>
-      </c>
-      <c r="X10" s="14">
-        <f t="shared" si="0"/>
-        <v>1.6428571428571428</v>
-      </c>
-      <c r="Y10" s="14">
-        <f t="shared" si="0"/>
-        <v>1.6428571428571428</v>
-      </c>
-      <c r="Z10" s="14">
-        <f t="shared" si="0"/>
-        <v>1.6428571428571428</v>
-      </c>
-      <c r="AA10" s="14">
-        <f t="shared" si="0"/>
-        <v>1.6428571428571428</v>
-      </c>
-      <c r="AB10" s="14">
-        <f t="shared" si="0"/>
-        <v>1.6428571428571428</v>
-      </c>
-      <c r="AC10" s="14">
-        <f t="shared" si="0"/>
-        <v>1.6428571428571428</v>
-      </c>
-      <c r="AD10" s="14">
-        <f t="shared" si="0"/>
-        <v>1.6428571428571428</v>
-      </c>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="15">
         <f>SUM(C2:C6)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D11" s="15">
         <f t="shared" ref="D11:H11" si="1">SUM(D2:D6)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="15">
         <f t="shared" si="1"/>
@@ -3275,7 +2580,7 @@
       </c>
       <c r="F11" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G11" s="15">
         <f t="shared" si="1"/>
@@ -3287,15 +2592,15 @@
       </c>
       <c r="I11" s="15">
         <f>SUM(I2:I6)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J11" s="15">
         <f>SUM(J2:J6)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" ref="K11:AD11" si="2">SUM(K2:K6)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L11" s="15">
         <f t="shared" si="2"/>
@@ -3307,72 +2612,24 @@
       </c>
       <c r="N11" s="15">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O11" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="15">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="U11" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -3384,120 +2641,72 @@
       </c>
       <c r="C12" s="14">
         <f>B12-C11</f>
-        <v>46</v>
+        <v>44.5</v>
       </c>
       <c r="D12" s="14">
         <f t="shared" ref="D12:H12" si="3">C12-D11</f>
-        <v>46</v>
+        <v>42.5</v>
       </c>
       <c r="E12" s="14">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>42.5</v>
       </c>
       <c r="F12" s="14">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>42.5</v>
       </c>
       <c r="G12" s="14">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>42.5</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>42.5</v>
       </c>
       <c r="I12" s="14">
         <f t="shared" ref="I12" si="4">H12-I11</f>
-        <v>25</v>
+        <v>42.5</v>
       </c>
       <c r="J12" s="14">
         <f t="shared" ref="J12" si="5">I12-J11</f>
-        <v>16</v>
+        <v>42.5</v>
       </c>
       <c r="K12" s="14">
         <f t="shared" ref="K12" si="6">J12-K11</f>
-        <v>16</v>
+        <v>20.5</v>
       </c>
       <c r="L12" s="14">
         <f t="shared" ref="L12" si="7">K12-L11</f>
-        <v>16</v>
+        <v>20.5</v>
       </c>
       <c r="M12" s="14">
         <f t="shared" ref="M12" si="8">L12-M11</f>
-        <v>16</v>
+        <v>20.5</v>
       </c>
       <c r="N12" s="14">
         <f t="shared" ref="N12" si="9">M12-N11</f>
-        <v>13</v>
-      </c>
-      <c r="O12" s="14">
-        <f t="shared" ref="O12" si="10">N12-O11</f>
-        <v>13</v>
-      </c>
-      <c r="P12" s="14">
-        <f t="shared" ref="P12" si="11">O12-P11</f>
-        <v>13</v>
-      </c>
-      <c r="Q12" s="14">
-        <f t="shared" ref="Q12" si="12">P12-Q11</f>
-        <v>13</v>
-      </c>
-      <c r="R12" s="14">
-        <f t="shared" ref="R12" si="13">Q12-R11</f>
-        <v>13</v>
-      </c>
-      <c r="S12" s="14">
-        <f t="shared" ref="S12" si="14">R12-S11</f>
-        <v>13</v>
-      </c>
-      <c r="T12" s="14">
-        <f t="shared" ref="T12" si="15">S12-T11</f>
-        <v>11</v>
-      </c>
-      <c r="U12" s="14">
-        <f t="shared" ref="U12" si="16">T12-U11</f>
-        <v>11</v>
-      </c>
-      <c r="V12" s="14">
-        <f t="shared" ref="V12" si="17">U12-V11</f>
-        <v>11</v>
-      </c>
-      <c r="W12" s="14">
-        <f t="shared" ref="W12" si="18">V12-W11</f>
-        <v>11</v>
-      </c>
-      <c r="X12" s="14">
-        <f t="shared" ref="X12" si="19">W12-X11</f>
-        <v>11</v>
-      </c>
-      <c r="Y12" s="14">
-        <f t="shared" ref="Y12" si="20">X12-Y11</f>
-        <v>11</v>
-      </c>
-      <c r="Z12" s="14">
-        <f t="shared" ref="Z12" si="21">Y12-Z11</f>
-        <v>11</v>
-      </c>
-      <c r="AA12" s="14">
-        <f t="shared" ref="AA12" si="22">Z12-AA11</f>
-        <v>11</v>
-      </c>
-      <c r="AB12" s="14">
-        <f t="shared" ref="AB12" si="23">AA12-AB11</f>
-        <v>11</v>
-      </c>
-      <c r="AC12" s="14">
-        <f t="shared" ref="AC12" si="24">AB12-AC11</f>
-        <v>11</v>
-      </c>
-      <c r="AD12" s="14">
-        <f t="shared" ref="AD12" si="25">AC12-AD11</f>
-        <v>11</v>
-      </c>
+        <v>20.5</v>
+      </c>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
         <f>SUM(B2:B6)</f>
@@ -3508,113 +2717,65 @@
         <v>44.357142857142854</v>
       </c>
       <c r="D13" s="16">
-        <f t="shared" ref="D13:H13" si="26">C13-D10</f>
+        <f t="shared" ref="D13:H13" si="10">C13-D10</f>
         <v>42.714285714285708</v>
       </c>
       <c r="E13" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>41.071428571428562</v>
       </c>
       <c r="F13" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>39.428571428571416</v>
       </c>
       <c r="G13" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>37.78571428571427</v>
       </c>
       <c r="H13" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>36.142857142857125</v>
       </c>
       <c r="I13" s="16">
-        <f t="shared" ref="I13" si="27">H13-I10</f>
+        <f t="shared" ref="I13" si="11">H13-I10</f>
         <v>34.499999999999979</v>
       </c>
       <c r="J13" s="16">
-        <f t="shared" ref="J13" si="28">I13-J10</f>
+        <f t="shared" ref="J13" si="12">I13-J10</f>
         <v>32.857142857142833</v>
       </c>
       <c r="K13" s="16">
-        <f t="shared" ref="K13" si="29">J13-K10</f>
+        <f t="shared" ref="K13" si="13">J13-K10</f>
         <v>31.21428571428569</v>
       </c>
       <c r="L13" s="16">
-        <f t="shared" ref="L13" si="30">K13-L10</f>
+        <f t="shared" ref="L13" si="14">K13-L10</f>
         <v>29.571428571428548</v>
       </c>
       <c r="M13" s="16">
-        <f t="shared" ref="M13" si="31">L13-M10</f>
+        <f t="shared" ref="M13" si="15">L13-M10</f>
         <v>27.928571428571406</v>
       </c>
       <c r="N13" s="16">
-        <f t="shared" ref="N13" si="32">M13-N10</f>
+        <f t="shared" ref="N13" si="16">M13-N10</f>
         <v>26.285714285714263</v>
       </c>
-      <c r="O13" s="16">
-        <f t="shared" ref="O13" si="33">N13-O10</f>
-        <v>24.642857142857121</v>
-      </c>
-      <c r="P13" s="16">
-        <f t="shared" ref="P13" si="34">O13-P10</f>
-        <v>22.999999999999979</v>
-      </c>
-      <c r="Q13" s="16">
-        <f t="shared" ref="Q13" si="35">P13-Q10</f>
-        <v>21.357142857142836</v>
-      </c>
-      <c r="R13" s="16">
-        <f t="shared" ref="R13" si="36">Q13-R10</f>
-        <v>19.714285714285694</v>
-      </c>
-      <c r="S13" s="16">
-        <f t="shared" ref="S13" si="37">R13-S10</f>
-        <v>18.071428571428552</v>
-      </c>
-      <c r="T13" s="16">
-        <f t="shared" ref="T13" si="38">S13-T10</f>
-        <v>16.428571428571409</v>
-      </c>
-      <c r="U13" s="16">
-        <f t="shared" ref="U13" si="39">T13-U10</f>
-        <v>14.785714285714267</v>
-      </c>
-      <c r="V13" s="16">
-        <f t="shared" ref="V13" si="40">U13-V10</f>
-        <v>13.142857142857125</v>
-      </c>
-      <c r="W13" s="16">
-        <f t="shared" ref="W13" si="41">V13-W10</f>
-        <v>11.499999999999982</v>
-      </c>
-      <c r="X13" s="16">
-        <f t="shared" ref="X13" si="42">W13-X10</f>
-        <v>9.8571428571428399</v>
-      </c>
-      <c r="Y13" s="16">
-        <f t="shared" ref="Y13" si="43">X13-Y10</f>
-        <v>8.2142857142856975</v>
-      </c>
-      <c r="Z13" s="16">
-        <f t="shared" ref="Z13" si="44">Y13-Z10</f>
-        <v>6.5714285714285552</v>
-      </c>
-      <c r="AA13" s="16">
-        <f t="shared" ref="AA13" si="45">Z13-AA10</f>
-        <v>4.9285714285714128</v>
-      </c>
-      <c r="AB13" s="16">
-        <f t="shared" ref="AB13" si="46">AA13-AB10</f>
-        <v>3.28571428571427</v>
-      </c>
-      <c r="AC13" s="16">
-        <f t="shared" ref="AC13" si="47">AB13-AC10</f>
-        <v>1.6428571428571273</v>
-      </c>
-      <c r="AD13" s="16">
-        <f t="shared" ref="AD13" si="48">AC13-AD10</f>
-        <v>-1.5543122344752192E-14</v>
-      </c>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/organisation/Burndown Chart/Sprint 5.xlsx
+++ b/doc/organisation/Burndown Chart/Sprint 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meyer.max\AndroidStudioProjects\BSN_2024\doc\organisation\Burndown Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F76E249-4CE1-4773-BA0A-B942572DB08D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726165E3-6EA3-45D9-96C2-FF70F05297B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2071,12 +2071,12 @@
   <dimension ref="A1:AN13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
@@ -2193,7 +2193,10 @@
       <c r="N2" s="19">
         <v>0</v>
       </c>
-      <c r="O2" s="19"/>
+      <c r="O2" s="19">
+        <f>SUM(C2:L2)</f>
+        <v>7</v>
+      </c>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
       <c r="R2" s="19"/>
@@ -2254,7 +2257,10 @@
       <c r="N3" s="18">
         <v>0</v>
       </c>
-      <c r="O3" s="18"/>
+      <c r="O3" s="19">
+        <f t="shared" ref="O3:O5" si="0">SUM(C3:L3)</f>
+        <v>1</v>
+      </c>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
@@ -2315,7 +2321,10 @@
       <c r="N4" s="19">
         <v>0</v>
       </c>
-      <c r="O4" s="19"/>
+      <c r="O4" s="19">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
@@ -2376,7 +2385,10 @@
       <c r="N5" s="19">
         <v>0</v>
       </c>
-      <c r="O5" s="19"/>
+      <c r="O5" s="19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
       <c r="R5" s="19"/>
@@ -2501,47 +2513,47 @@
         <v>1.6428571428571428</v>
       </c>
       <c r="D10" s="14">
-        <f t="shared" ref="D10:AD10" si="0">SUM($B$2:$B$6)/28</f>
+        <f t="shared" ref="D10:N10" si="1">SUM($B$2:$B$6)/28</f>
         <v>1.6428571428571428</v>
       </c>
       <c r="E10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6428571428571428</v>
       </c>
       <c r="F10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6428571428571428</v>
       </c>
       <c r="G10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6428571428571428</v>
       </c>
       <c r="H10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6428571428571428</v>
       </c>
       <c r="I10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6428571428571428</v>
       </c>
       <c r="J10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6428571428571428</v>
       </c>
       <c r="K10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6428571428571428</v>
       </c>
       <c r="L10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6428571428571428</v>
       </c>
       <c r="M10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6428571428571428</v>
       </c>
       <c r="N10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6428571428571428</v>
       </c>
       <c r="O10" s="14"/>
@@ -2571,23 +2583,23 @@
         <v>1.5</v>
       </c>
       <c r="D11" s="15">
-        <f t="shared" ref="D11:H11" si="1">SUM(D2:D6)</f>
+        <f t="shared" ref="D11:H11" si="2">SUM(D2:D6)</f>
         <v>2</v>
       </c>
       <c r="E11" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F11" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G11" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H11" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="15">
@@ -2599,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="K11" s="15">
-        <f t="shared" ref="K11:AD11" si="2">SUM(K2:K6)</f>
+        <f t="shared" ref="K11:N11" si="3">SUM(K2:K6)</f>
         <v>22</v>
       </c>
       <c r="L11" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M11" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N11" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O11" s="15"/>
@@ -2644,47 +2656,47 @@
         <v>44.5</v>
       </c>
       <c r="D12" s="14">
-        <f t="shared" ref="D12:H12" si="3">C12-D11</f>
+        <f t="shared" ref="D12:H12" si="4">C12-D11</f>
         <v>42.5</v>
       </c>
       <c r="E12" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42.5</v>
       </c>
       <c r="F12" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42.5</v>
       </c>
       <c r="G12" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42.5</v>
       </c>
       <c r="H12" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42.5</v>
       </c>
       <c r="I12" s="14">
-        <f t="shared" ref="I12" si="4">H12-I11</f>
+        <f t="shared" ref="I12" si="5">H12-I11</f>
         <v>42.5</v>
       </c>
       <c r="J12" s="14">
-        <f t="shared" ref="J12" si="5">I12-J11</f>
+        <f t="shared" ref="J12" si="6">I12-J11</f>
         <v>42.5</v>
       </c>
       <c r="K12" s="14">
-        <f t="shared" ref="K12" si="6">J12-K11</f>
+        <f t="shared" ref="K12" si="7">J12-K11</f>
         <v>20.5</v>
       </c>
       <c r="L12" s="14">
-        <f t="shared" ref="L12" si="7">K12-L11</f>
+        <f t="shared" ref="L12" si="8">K12-L11</f>
         <v>20.5</v>
       </c>
       <c r="M12" s="14">
-        <f t="shared" ref="M12" si="8">L12-M11</f>
+        <f t="shared" ref="M12" si="9">L12-M11</f>
         <v>20.5</v>
       </c>
       <c r="N12" s="14">
-        <f t="shared" ref="N12" si="9">M12-N11</f>
+        <f t="shared" ref="N12" si="10">M12-N11</f>
         <v>20.5</v>
       </c>
       <c r="O12" s="14"/>
@@ -2717,47 +2729,47 @@
         <v>44.357142857142854</v>
       </c>
       <c r="D13" s="16">
-        <f t="shared" ref="D13:H13" si="10">C13-D10</f>
+        <f t="shared" ref="D13:H13" si="11">C13-D10</f>
         <v>42.714285714285708</v>
       </c>
       <c r="E13" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>41.071428571428562</v>
       </c>
       <c r="F13" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>39.428571428571416</v>
       </c>
       <c r="G13" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>37.78571428571427</v>
       </c>
       <c r="H13" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>36.142857142857125</v>
       </c>
       <c r="I13" s="16">
-        <f t="shared" ref="I13" si="11">H13-I10</f>
+        <f t="shared" ref="I13" si="12">H13-I10</f>
         <v>34.499999999999979</v>
       </c>
       <c r="J13" s="16">
-        <f t="shared" ref="J13" si="12">I13-J10</f>
+        <f t="shared" ref="J13" si="13">I13-J10</f>
         <v>32.857142857142833</v>
       </c>
       <c r="K13" s="16">
-        <f t="shared" ref="K13" si="13">J13-K10</f>
+        <f t="shared" ref="K13" si="14">J13-K10</f>
         <v>31.21428571428569</v>
       </c>
       <c r="L13" s="16">
-        <f t="shared" ref="L13" si="14">K13-L10</f>
+        <f t="shared" ref="L13" si="15">K13-L10</f>
         <v>29.571428571428548</v>
       </c>
       <c r="M13" s="16">
-        <f t="shared" ref="M13" si="15">L13-M10</f>
+        <f t="shared" ref="M13" si="16">L13-M10</f>
         <v>27.928571428571406</v>
       </c>
       <c r="N13" s="16">
-        <f t="shared" ref="N13" si="16">M13-N10</f>
+        <f t="shared" ref="N13" si="17">M13-N10</f>
         <v>26.285714285714263</v>
       </c>
       <c r="O13" s="16"/>
